--- a/data/carl_demo_requests.xlsx
+++ b/data/carl_demo_requests.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,10 +909,95 @@
           <t>Navale IT Zone</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
           <t>192.168.1.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-01-13 01:42:07 UTC</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Diksha</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Truecue iEngineering</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>diksha@iengaust.com.au</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>+91</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+91 9168627258</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>192.168.1.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-01-13 01:43:11 UTC</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Diksha</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Truecue iEngineering</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>diksha@iengaust.com.au</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>+91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+91 9168627258</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>192.168.1.37</t>
         </is>
       </c>
     </row>
